--- a/data/processed/extrato_conta_aplicação_limpo.xlsx
+++ b/data/processed/extrato_conta_aplicação_limpo.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -790,6 +790,104 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45869</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>00000</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>RENDIMENTOS</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1077343.87</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>RENDIMENTOS</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45900</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>00000</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>RENDIMENTOS</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>956265.4300000001</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>RENDIMENTOS</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
